--- a/SuppXLS/Scen_ELC_BIO_10.xlsx
+++ b/SuppXLS/Scen_ELC_BIO_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_8760TS_1REG_2020.12.2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6998E5-5F61-4D2B-8502-BCAEC7F98E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4B1CA4-03B4-43FC-86CA-AC251F42BC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="810" windowWidth="24800" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="2800" windowWidth="25800" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>UC_N</t>
   </si>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>P*COA*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P*OIL*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,10 +537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -584,7 +580,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -633,7 +629,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -704,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -779,31 +775,31 @@
         <v>15</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N16" si="1">IF($A10=1,C$2-1,C$2)</f>
+        <f t="shared" ref="N10:N15" si="1">IF($A10=1,C$2-1,C$2)</f>
         <v>-0.9</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O16" si="2">IF($A10=1,D$2-1,D$2)</f>
+        <f t="shared" ref="O10:O15" si="2">IF($A10=1,D$2-1,D$2)</f>
         <v>-0.7</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P16" si="3">IF($A10=1,E$2-1,E$2)</f>
+        <f t="shared" ref="P10:P15" si="3">IF($A10=1,E$2-1,E$2)</f>
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q16" si="4">IF($A10=1,F$2-1,F$2)</f>
+        <f t="shared" ref="Q10:Q15" si="4">IF($A10=1,F$2-1,F$2)</f>
         <v>-0.4</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R16" si="5">IF($A10=1,G$2-1,G$2)</f>
+        <f t="shared" ref="R10:R15" si="5">IF($A10=1,G$2-1,G$2)</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10:S16" si="6">IF($A10=1,H$2-1,H$2)</f>
+        <f t="shared" ref="S10:S15" si="6">IF($A10=1,H$2-1,H$2)</f>
         <v>-0.19999999999999996</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:T16" si="7">IF($A10=1,I$2-1,I$2)</f>
+        <f t="shared" ref="T10:T15" si="7">IF($A10=1,I$2-1,I$2)</f>
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
@@ -812,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -1000,9 +996,6 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1020,36 +1013,39 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>-0.9</v>
+        <v>0.1</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>-0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P15">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>-0.30000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>-0.19999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="T15">
         <f t="shared" si="7"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -1064,32 +1060,32 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" ref="N16:T17" si="15">IF($A16=1,C$2-1,C$2)</f>
+        <v>-0.9</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
+        <f t="shared" si="15"/>
+        <v>-0.7</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f t="shared" si="15"/>
+        <v>-0.4</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
-        <v>0.7</v>
+        <f t="shared" si="15"/>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
+        <f t="shared" si="15"/>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="T16">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="15"/>
+        <v>-9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1097,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -1112,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:T18" si="15">IF($A17=1,C$2-1,C$2)</f>
+        <f t="shared" si="15"/>
         <v>-0.9</v>
       </c>
       <c r="O17">
@@ -1136,54 +1132,6 @@
         <v>-0.19999999999999996</v>
       </c>
       <c r="T17">
-        <f t="shared" si="15"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="15"/>
-        <v>-0.9</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="15"/>
-        <v>-0.7</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="15"/>
-        <v>-0.5</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="15"/>
-        <v>-0.4</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="15"/>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="15"/>
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="T18">
         <f t="shared" si="15"/>
         <v>-9.9999999999999978E-2</v>
       </c>

--- a/SuppXLS/Scen_ELC_BIO_10.xlsx
+++ b/SuppXLS/Scen_ELC_BIO_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172D97A-2788-463A-A041-2D57CE7E8735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C593D79-B8F8-4727-9D20-6C6B489BFAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="4" r:id="rId1"/>
@@ -116,10 +116,6 @@
     <t>Pset_PD</t>
   </si>
   <si>
-    <t>ELCC,ELCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P*BIO*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +336,9 @@
   </si>
   <si>
     <t>Max BIO Penetration</t>
+  </si>
+  <si>
+    <t>ELCC</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1046,13 @@
     </row>
     <row r="5" spans="1:30" ht="15">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>A11</f>
@@ -1162,7 +1161,7 @@
     </row>
     <row r="6" spans="1:30" ht="15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>C5</f>
@@ -1279,7 +1278,7 @@
     </row>
     <row r="7" spans="1:30" ht="15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>"*"&amp;C5</f>
@@ -1396,223 +1395,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1656,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G9:G15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1697,7 +1696,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1762,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -1771,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -1785,16 +1784,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>2020</v>
@@ -1816,12 +1815,12 @@
         <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="G10" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>2025</v>
@@ -1833,7 +1832,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="G11" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>2030</v>
@@ -1845,7 +1844,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="G12" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>2035</v>
@@ -1857,7 +1856,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="G13" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>2040</v>
@@ -1869,7 +1868,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="G14" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H14">
         <v>2045</v>
@@ -1881,7 +1880,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="G15" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>2050</v>
